--- a/wwwroot/templates/Employee.xlsx
+++ b/wwwroot/templates/Employee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Desktop\CRUDDemo\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D0D526-F3FB-4306-A159-697929E3BA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6F2C5D-8870-4AF1-94D8-2647FFE82A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -44,13 +44,43 @@
   </si>
   <si>
     <t xml:space="preserve">    Children Names</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Children age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Children  gender</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -62,6 +92,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,12 +139,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -423,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,16 +479,18 @@
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" customWidth="1"/>
     <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -465,6 +507,12 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
